--- a/최종_규준(환산).xlsx
+++ b/최종_규준(환산).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\bayley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8F1267-D107-42D1-9267-48D386D3F071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E650AF4-F383-40DD-886B-9FDB876F28DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="875" firstSheet="1" activeTab="10" xr2:uid="{236A1777-4EB0-46F9-9FB1-136A8B5C4756}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="875" firstSheet="1" activeTab="3" xr2:uid="{236A1777-4EB0-46F9-9FB1-136A8B5C4756}"/>
   </bookViews>
   <sheets>
     <sheet name="인지(KCG)" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8160" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8160" uniqueCount="1424">
   <si>
     <t>scaled score</t>
   </si>
@@ -5394,9 +5394,6 @@
   </si>
   <si>
     <t>31:00-42:30</t>
-  </si>
-  <si>
-    <t>_</t>
   </si>
   <si>
     <t>14-74</t>
@@ -13633,8 +13630,8 @@
   </sheetPr>
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18748,7 +18745,9 @@
   </sheetPr>
   <dimension ref="A1:AW20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="Z1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21283,14 +21282,14 @@
       <c r="AU17" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="AV17" s="97" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AW17" s="97" t="s">
-        <v>1421</v>
+      <c r="AV17" s="98" t="s">
+        <v>594</v>
+      </c>
+      <c r="AW17" s="98" t="s">
+        <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:49" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="75">
         <v>17</v>
       </c>
@@ -21432,11 +21431,11 @@
       <c r="AU18" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AV18" s="96" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AW18" s="96" t="s">
-        <v>1421</v>
+      <c r="AV18" s="98" t="s">
+        <v>594</v>
+      </c>
+      <c r="AW18" s="98" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:49" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -21581,11 +21580,11 @@
       <c r="AU19" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="AV19" s="103" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AW19" s="103" t="s">
-        <v>1421</v>
+      <c r="AV19" s="98" t="s">
+        <v>594</v>
+      </c>
+      <c r="AW19" s="98" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:49" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -21593,7 +21592,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>843</v>
@@ -21730,11 +21729,11 @@
       <c r="AU20" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="AV20" s="97" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AW20" s="97" t="s">
-        <v>1421</v>
+      <c r="AV20" s="98" t="s">
+        <v>594</v>
+      </c>
+      <c r="AW20" s="98" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -21751,7 +21750,9 @@
   </sheetPr>
   <dimension ref="A1:AW20"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21923,10 +21924,10 @@
         <v>594</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>1421</v>
+        <v>47</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>1421</v>
+        <v>47</v>
       </c>
       <c r="G2" s="134" t="s">
         <v>91</v>
@@ -22072,7 +22073,7 @@
         <v>594</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>1421</v>
+        <v>47</v>
       </c>
       <c r="F3" s="133">
         <v>0</v>
@@ -22218,7 +22219,7 @@
         <v>594</v>
       </c>
       <c r="D4" s="136" t="s">
-        <v>1421</v>
+        <v>47</v>
       </c>
       <c r="E4" s="137">
         <v>0</v>
@@ -22513,7 +22514,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="136" t="s">
-        <v>1421</v>
+        <v>47</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -22659,7 +22660,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="140" t="s">
-        <v>1421</v>
+        <v>47</v>
       </c>
       <c r="C7" s="139">
         <v>1</v>
@@ -24683,10 +24684,10 @@
         <v>996</v>
       </c>
       <c r="AE20" s="281" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AF20" s="282" t="s">
         <v>1423</v>
-      </c>
-      <c r="AF20" s="282" t="s">
-        <v>1424</v>
       </c>
       <c r="AG20" s="146" t="s">
         <v>997</v>
